--- a/dataExcel/【AWP（StatTrak™） _ 蠕虫之神 (略有磨损)】悠悠有品近1个月-总览.xlsx
+++ b/dataExcel/【AWP（StatTrak™） _ 蠕虫之神 (略有磨损)】悠悠有品近1个月-总览.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,16 +431,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-16 17:17:48</v>
+        <v>2023-09-19 12:41:31</v>
       </c>
       <c r="B8">
-        <v>32</v>
+        <v>30.88</v>
       </c>
       <c r="C8">
-        <v>34.97</v>
+        <v>34.77</v>
       </c>
       <c r="D8">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E8">
         <v>0.02</v>
@@ -449,10 +449,10 @@
         <v>0.01</v>
       </c>
       <c r="G8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>27.7</v>
+        <v>28.9</v>
       </c>
       <c r="I8">
         <v>10</v>
@@ -460,28 +460,28 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-16 22:40:22</v>
+        <v>2023-09-19 17:52:00</v>
       </c>
       <c r="B9">
-        <v>31.99</v>
+        <v>30.68</v>
       </c>
       <c r="C9">
-        <v>34.97</v>
+        <v>34.77</v>
       </c>
       <c r="D9">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E9">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F9">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9">
-        <v>27.9</v>
+        <v>28.9</v>
       </c>
       <c r="I9">
         <v>9</v>
@@ -489,57 +489,57 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-17 03:49:07</v>
+        <v>2023-09-19 23:03:00</v>
       </c>
       <c r="B10">
-        <v>31.99</v>
+        <v>30</v>
       </c>
       <c r="C10">
-        <v>36.4</v>
+        <v>34.77</v>
       </c>
       <c r="D10">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E10">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F10">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G10">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H10">
-        <v>27.8</v>
+        <v>29.2</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-17 08:59:26</v>
+        <v>2023-09-20 04:10:04</v>
       </c>
       <c r="B11">
-        <v>31.99</v>
+        <v>30</v>
       </c>
       <c r="C11">
-        <v>36.4</v>
+        <v>34.77</v>
       </c>
       <c r="D11">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E11">
         <v>0.03</v>
       </c>
       <c r="F11">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H11">
-        <v>27.9</v>
+        <v>29.2</v>
       </c>
       <c r="I11">
         <v>9</v>
@@ -547,16 +547,16 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-17 14:08:19</v>
+        <v>2023-09-20 09:21:50</v>
       </c>
       <c r="B12">
-        <v>31.5</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>36.4</v>
+        <v>34.77</v>
       </c>
       <c r="D12">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E12">
         <v>0.03</v>
@@ -565,10 +565,10 @@
         <v>0.02</v>
       </c>
       <c r="G12">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12">
-        <v>27.9</v>
+        <v>29.2</v>
       </c>
       <c r="I12">
         <v>9</v>
@@ -576,16 +576,16 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-17 19:19:50</v>
+        <v>2023-09-20 14:34:57</v>
       </c>
       <c r="B13">
-        <v>31.4</v>
+        <v>29.9</v>
       </c>
       <c r="C13">
-        <v>36.4</v>
+        <v>34.77</v>
       </c>
       <c r="D13">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E13">
         <v>0.03</v>
@@ -597,24 +597,24 @@
         <v>27</v>
       </c>
       <c r="H13">
-        <v>27.9</v>
+        <v>29.2</v>
       </c>
       <c r="I13">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-18 00:34:17</v>
+        <v>2023-09-20 19:43:11</v>
       </c>
       <c r="B14">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>36.4</v>
+        <v>34.77</v>
       </c>
       <c r="D14">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E14">
         <v>0.03</v>
@@ -626,7 +626,7 @@
         <v>27</v>
       </c>
       <c r="H14">
-        <v>28.3</v>
+        <v>29.2</v>
       </c>
       <c r="I14">
         <v>11</v>
@@ -634,16 +634,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-18 05:39:28</v>
+        <v>2023-09-21 00:53:09</v>
       </c>
       <c r="B15">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15">
-        <v>35.95</v>
+        <v>34.77</v>
       </c>
       <c r="D15">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E15">
         <v>0.03</v>
@@ -655,7 +655,7 @@
         <v>27</v>
       </c>
       <c r="H15">
-        <v>28.3</v>
+        <v>29</v>
       </c>
       <c r="I15">
         <v>11</v>
@@ -663,13 +663,13 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-18 10:51:19</v>
+        <v>2023-09-21 06:01:34</v>
       </c>
       <c r="B16">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16">
-        <v>35.95</v>
+        <v>35.43</v>
       </c>
       <c r="D16">
         <v>137</v>
@@ -684,24 +684,24 @@
         <v>27</v>
       </c>
       <c r="H16">
-        <v>28.3</v>
+        <v>29</v>
       </c>
       <c r="I16">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-18 16:04:00</v>
+        <v>2023-09-21 11:10:46</v>
       </c>
       <c r="B17">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="C17">
-        <v>35.95</v>
+        <v>35.43</v>
       </c>
       <c r="D17">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E17">
         <v>0.03</v>
@@ -713,24 +713,24 @@
         <v>27</v>
       </c>
       <c r="H17">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-18 21:09:23</v>
+        <v>2023-09-21 16:22:06</v>
       </c>
       <c r="B18">
-        <v>31</v>
+        <v>31.9</v>
       </c>
       <c r="C18">
-        <v>35.95</v>
+        <v>35.43</v>
       </c>
       <c r="D18">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E18">
         <v>0.03</v>
@@ -739,27 +739,27 @@
         <v>0.02</v>
       </c>
       <c r="G18">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H18">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="I18">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-19 02:21:13</v>
+        <v>2023-09-21 21:34:31</v>
       </c>
       <c r="B19">
-        <v>30.98</v>
+        <v>31</v>
       </c>
       <c r="C19">
-        <v>34.77</v>
+        <v>35.43</v>
       </c>
       <c r="D19">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E19">
         <v>0.03</v>
@@ -768,27 +768,27 @@
         <v>0.02</v>
       </c>
       <c r="G19">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H19">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-19 07:29:56</v>
+        <v>2023-09-22 02:46:19</v>
       </c>
       <c r="B20">
-        <v>30.98</v>
+        <v>33.1</v>
       </c>
       <c r="C20">
-        <v>34.77</v>
+        <v>34.84</v>
       </c>
       <c r="D20">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E20">
         <v>0.03</v>
@@ -797,56 +797,56 @@
         <v>0.02</v>
       </c>
       <c r="G20">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H20">
-        <v>28.9</v>
+        <v>28.5</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-19 12:41:31</v>
+        <v>2023-09-22 07:51:14</v>
       </c>
       <c r="B21">
-        <v>30.88</v>
+        <v>33.5</v>
       </c>
       <c r="C21">
-        <v>34.77</v>
+        <v>34.84</v>
       </c>
       <c r="D21">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E21">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F21">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G21">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H21">
-        <v>28.9</v>
+        <v>28.5</v>
       </c>
       <c r="I21">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-19 17:52:00</v>
+        <v>2023-09-22 13:01:14</v>
       </c>
       <c r="B22">
-        <v>30.68</v>
+        <v>33.68</v>
       </c>
       <c r="C22">
-        <v>34.77</v>
+        <v>34.84</v>
       </c>
       <c r="D22">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E22">
         <v>0.03</v>
@@ -855,39 +855,39 @@
         <v>0.02</v>
       </c>
       <c r="G22">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H22">
-        <v>28.9</v>
+        <v>28.5</v>
       </c>
       <c r="I22">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-19 23:03:00</v>
+        <v>2023-09-22 18:14:07</v>
       </c>
       <c r="B23">
-        <v>30</v>
+        <v>33.58</v>
       </c>
       <c r="C23">
-        <v>34.77</v>
+        <v>34.84</v>
       </c>
       <c r="D23">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E23">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F23">
         <v>0.02</v>
       </c>
       <c r="G23">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H23">
-        <v>29.2</v>
+        <v>28.6</v>
       </c>
       <c r="I23">
         <v>10</v>
@@ -895,86 +895,86 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-20 04:10:04</v>
+        <v>2023-09-22 23:24:48</v>
       </c>
       <c r="B24">
-        <v>30</v>
+        <v>33.5</v>
       </c>
       <c r="C24">
-        <v>34.77</v>
+        <v>34.84</v>
       </c>
       <c r="D24">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E24">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F24">
         <v>0.02</v>
       </c>
       <c r="G24">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>29.2</v>
+        <v>28.6</v>
       </c>
       <c r="I24">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-20 09:21:50</v>
+        <v>2023-09-23 04:34:43</v>
       </c>
       <c r="B25">
-        <v>30</v>
+        <v>33.29</v>
       </c>
       <c r="C25">
-        <v>34.77</v>
+        <v>34.71</v>
       </c>
       <c r="D25">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E25">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F25">
         <v>0.02</v>
       </c>
       <c r="G25">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H25">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="I25">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-20 14:34:57</v>
+        <v>2023-09-23 09:42:54</v>
       </c>
       <c r="B26">
-        <v>29.9</v>
+        <v>33.29</v>
       </c>
       <c r="C26">
-        <v>34.77</v>
+        <v>34.71</v>
       </c>
       <c r="D26">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E26">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F26">
         <v>0.02</v>
       </c>
       <c r="G26">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H26">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="I26">
         <v>10</v>
@@ -982,16 +982,16 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-20 19:43:11</v>
+        <v>2023-09-23 14:53:22</v>
       </c>
       <c r="B27">
-        <v>30</v>
+        <v>32.88</v>
       </c>
       <c r="C27">
-        <v>34.77</v>
+        <v>34.71</v>
       </c>
       <c r="D27">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E27">
         <v>0.03</v>
@@ -1000,27 +1000,27 @@
         <v>0.02</v>
       </c>
       <c r="G27">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H27">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="I27">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-21 00:53:09</v>
+        <v>2023-09-23 20:03:22</v>
       </c>
       <c r="B28">
-        <v>30</v>
+        <v>32.88</v>
       </c>
       <c r="C28">
-        <v>34.77</v>
+        <v>34.71</v>
       </c>
       <c r="D28">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E28">
         <v>0.03</v>
@@ -1029,27 +1029,27 @@
         <v>0.02</v>
       </c>
       <c r="G28">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>29</v>
       </c>
       <c r="I28">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-21 06:01:34</v>
+        <v>2023-09-24 01:12:56</v>
       </c>
       <c r="B29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C29">
-        <v>35.43</v>
+        <v>34.71</v>
       </c>
       <c r="D29">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E29">
         <v>0.03</v>
@@ -1058,10 +1058,10 @@
         <v>0.02</v>
       </c>
       <c r="G29">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H29">
-        <v>29</v>
+        <v>29.3</v>
       </c>
       <c r="I29">
         <v>12</v>
@@ -1069,16 +1069,16 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-21 11:10:46</v>
+        <v>2023-09-24 06:25:03</v>
       </c>
       <c r="B30">
         <v>31.9</v>
       </c>
       <c r="C30">
-        <v>35.43</v>
+        <v>34.71</v>
       </c>
       <c r="D30">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E30">
         <v>0.03</v>
@@ -1087,10 +1087,10 @@
         <v>0.02</v>
       </c>
       <c r="G30">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H30">
-        <v>29</v>
+        <v>29.3</v>
       </c>
       <c r="I30">
         <v>12</v>
@@ -1098,16 +1098,16 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-21 16:22:06</v>
+        <v>2023-09-24 11:35:27</v>
       </c>
       <c r="B31">
-        <v>31.9</v>
+        <v>31</v>
       </c>
       <c r="C31">
-        <v>35.43</v>
+        <v>34.71</v>
       </c>
       <c r="D31">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E31">
         <v>0.03</v>
@@ -1116,27 +1116,27 @@
         <v>0.02</v>
       </c>
       <c r="G31">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H31">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="I31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-21 21:34:31</v>
+        <v>2023-09-24 16:43:59</v>
       </c>
       <c r="B32">
         <v>31</v>
       </c>
       <c r="C32">
-        <v>35.43</v>
+        <v>34.71</v>
       </c>
       <c r="D32">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E32">
         <v>0.03</v>
@@ -1145,10 +1145,10 @@
         <v>0.02</v>
       </c>
       <c r="G32">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H32">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="I32">
         <v>11</v>
@@ -1156,16 +1156,16 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-22 02:46:19</v>
+        <v>2023-09-24 21:53:38</v>
       </c>
       <c r="B33">
-        <v>33.1</v>
+        <v>31</v>
       </c>
       <c r="C33">
-        <v>34.84</v>
+        <v>34.71</v>
       </c>
       <c r="D33">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E33">
         <v>0.03</v>
@@ -1174,10 +1174,10 @@
         <v>0.02</v>
       </c>
       <c r="G33">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>28.5</v>
+        <v>29.3</v>
       </c>
       <c r="I33">
         <v>11</v>
@@ -1185,16 +1185,16 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-22 07:51:14</v>
+        <v>2023-09-25 03:03:42</v>
       </c>
       <c r="B34">
-        <v>33.5</v>
+        <v>32</v>
       </c>
       <c r="C34">
-        <v>34.84</v>
+        <v>34.71</v>
       </c>
       <c r="D34">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E34">
         <v>0.03</v>
@@ -1203,10 +1203,10 @@
         <v>0.02</v>
       </c>
       <c r="G34">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H34">
-        <v>28.5</v>
+        <v>29.3</v>
       </c>
       <c r="I34">
         <v>11</v>
@@ -1214,16 +1214,16 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-22 13:01:14</v>
+        <v>2023-09-25 08:14:43</v>
       </c>
       <c r="B35">
-        <v>33.68</v>
+        <v>32</v>
       </c>
       <c r="C35">
-        <v>34.84</v>
+        <v>34.71</v>
       </c>
       <c r="D35">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E35">
         <v>0.03</v>
@@ -1232,143 +1232,143 @@
         <v>0.02</v>
       </c>
       <c r="G35">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H35">
-        <v>28.5</v>
+        <v>29.3</v>
       </c>
       <c r="I35">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-22 18:14:07</v>
+        <v>2023-09-25 13:24:56</v>
       </c>
       <c r="B36">
-        <v>33.58</v>
+        <v>30</v>
       </c>
       <c r="C36">
-        <v>34.84</v>
+        <v>34.71</v>
       </c>
       <c r="D36">
         <v>143</v>
       </c>
       <c r="E36">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F36">
         <v>0.02</v>
       </c>
       <c r="G36">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H36">
-        <v>28.6</v>
+        <v>29.3</v>
       </c>
       <c r="I36">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-22 23:24:48</v>
+        <v>2023-09-25 18:34:42</v>
       </c>
       <c r="B37">
-        <v>33.5</v>
+        <v>30</v>
       </c>
       <c r="C37">
-        <v>34.84</v>
+        <v>34.71</v>
       </c>
       <c r="D37">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E37">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F37">
         <v>0.02</v>
       </c>
       <c r="G37">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H37">
-        <v>28.6</v>
+        <v>29.3</v>
       </c>
       <c r="I37">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-23 04:34:43</v>
+        <v>2023-09-25 23:44:07</v>
       </c>
       <c r="B38">
-        <v>33.29</v>
+        <v>30</v>
       </c>
       <c r="C38">
         <v>34.71</v>
       </c>
       <c r="D38">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E38">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F38">
         <v>0.02</v>
       </c>
       <c r="G38">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H38">
-        <v>28.9</v>
+        <v>29.3</v>
       </c>
       <c r="I38">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-23 09:42:54</v>
+        <v>2023-09-26 04:55:26</v>
       </c>
       <c r="B39">
-        <v>33.29</v>
+        <v>30</v>
       </c>
       <c r="C39">
-        <v>34.71</v>
+        <v>35.29</v>
       </c>
       <c r="D39">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E39">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F39">
         <v>0.02</v>
       </c>
       <c r="G39">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H39">
-        <v>28.9</v>
+        <v>29.3</v>
       </c>
       <c r="I39">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-23 14:53:22</v>
+        <v>2023-09-26 10:03:50</v>
       </c>
       <c r="B40">
-        <v>32.88</v>
+        <v>29.9</v>
       </c>
       <c r="C40">
-        <v>34.71</v>
+        <v>35.29</v>
       </c>
       <c r="D40">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E40">
         <v>0.03</v>
@@ -1377,27 +1377,27 @@
         <v>0.02</v>
       </c>
       <c r="G40">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H40">
-        <v>28.9</v>
+        <v>29.3</v>
       </c>
       <c r="I40">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-23 20:03:22</v>
+        <v>2023-09-26 15:14:32</v>
       </c>
       <c r="B41">
-        <v>32.88</v>
+        <v>29.9</v>
       </c>
       <c r="C41">
-        <v>34.71</v>
+        <v>35.29</v>
       </c>
       <c r="D41">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E41">
         <v>0.03</v>
@@ -1406,27 +1406,27 @@
         <v>0.02</v>
       </c>
       <c r="G41">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H41">
-        <v>29</v>
+        <v>27.4</v>
       </c>
       <c r="I41">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-24 01:12:56</v>
+        <v>2023-09-26 20:23:58</v>
       </c>
       <c r="B42">
-        <v>32</v>
+        <v>29.89</v>
       </c>
       <c r="C42">
-        <v>34.71</v>
+        <v>35.29</v>
       </c>
       <c r="D42">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E42">
         <v>0.03</v>
@@ -1438,24 +1438,24 @@
         <v>32</v>
       </c>
       <c r="H42">
-        <v>29.3</v>
+        <v>27.4</v>
       </c>
       <c r="I42">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-24 06:25:03</v>
+        <v>2023-09-27 01:34:25</v>
       </c>
       <c r="B43">
-        <v>31.9</v>
+        <v>29.89</v>
       </c>
       <c r="C43">
-        <v>34.71</v>
+        <v>35.29</v>
       </c>
       <c r="D43">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E43">
         <v>0.03</v>
@@ -1467,24 +1467,24 @@
         <v>32</v>
       </c>
       <c r="H43">
-        <v>29.3</v>
+        <v>27.6</v>
       </c>
       <c r="I43">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-24 11:35:27</v>
+        <v>2023-09-27 06:44:05</v>
       </c>
       <c r="B44">
-        <v>31</v>
+        <v>29.89</v>
       </c>
       <c r="C44">
-        <v>34.71</v>
+        <v>35.29</v>
       </c>
       <c r="D44">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E44">
         <v>0.03</v>
@@ -1496,36 +1496,36 @@
         <v>32</v>
       </c>
       <c r="H44">
-        <v>29.2</v>
+        <v>27.6</v>
       </c>
       <c r="I44">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-24 16:43:59</v>
+        <v>2023-09-27 11:55:21</v>
       </c>
       <c r="B45">
-        <v>31</v>
+        <v>29.87</v>
       </c>
       <c r="C45">
-        <v>34.71</v>
+        <v>35.29</v>
       </c>
       <c r="D45">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E45">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F45">
         <v>0.02</v>
       </c>
       <c r="G45">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H45">
-        <v>29.2</v>
+        <v>27.6</v>
       </c>
       <c r="I45">
         <v>11</v>
@@ -1533,364 +1533,364 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-24 21:53:38</v>
+        <v>2023-09-27 17:05:42</v>
       </c>
       <c r="B46">
-        <v>31</v>
+        <v>29.87</v>
       </c>
       <c r="C46">
-        <v>34.71</v>
+        <v>35.29</v>
       </c>
       <c r="D46">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E46">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F46">
         <v>0.02</v>
       </c>
       <c r="G46">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H46">
-        <v>29.3</v>
+        <v>27.6</v>
       </c>
       <c r="I46">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-25 03:03:42</v>
+        <v>2023-09-27 22:15:46</v>
       </c>
       <c r="B47">
+        <v>28.99</v>
+      </c>
+      <c r="C47">
+        <v>35.29</v>
+      </c>
+      <c r="D47">
+        <v>148</v>
+      </c>
+      <c r="E47">
+        <v>0.02</v>
+      </c>
+      <c r="F47">
+        <v>0.02</v>
+      </c>
+      <c r="G47">
         <v>32</v>
       </c>
-      <c r="C47">
-        <v>34.71</v>
-      </c>
-      <c r="D47">
-        <v>145</v>
-      </c>
-      <c r="E47">
-        <v>0.03</v>
-      </c>
-      <c r="F47">
-        <v>0.02</v>
-      </c>
-      <c r="G47">
-        <v>31</v>
-      </c>
       <c r="H47">
-        <v>29.3</v>
+        <v>27.6</v>
       </c>
       <c r="I47">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-25 08:14:43</v>
+        <v>2023-09-28 03:27:07</v>
       </c>
       <c r="B48">
+        <v>28.99</v>
+      </c>
+      <c r="C48">
+        <v>36.27</v>
+      </c>
+      <c r="D48">
+        <v>142</v>
+      </c>
+      <c r="E48">
+        <v>0.02</v>
+      </c>
+      <c r="F48">
+        <v>0.02</v>
+      </c>
+      <c r="G48">
         <v>32</v>
       </c>
-      <c r="C48">
-        <v>34.71</v>
-      </c>
-      <c r="D48">
-        <v>145</v>
-      </c>
-      <c r="E48">
-        <v>0.03</v>
-      </c>
-      <c r="F48">
-        <v>0.02</v>
-      </c>
-      <c r="G48">
-        <v>31</v>
-      </c>
       <c r="H48">
-        <v>29.3</v>
+        <v>27.6</v>
       </c>
       <c r="I48">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-25 13:24:56</v>
+        <v>2023-09-28 08:35:01</v>
       </c>
       <c r="B49">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C49">
-        <v>34.71</v>
+        <v>36.27</v>
       </c>
       <c r="D49">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E49">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F49">
         <v>0.02</v>
       </c>
       <c r="G49">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H49">
-        <v>29.3</v>
+        <v>27.6</v>
       </c>
       <c r="I49">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-25 18:34:42</v>
+        <v>2023-09-28 13:45:56</v>
       </c>
       <c r="B50">
-        <v>30</v>
+        <v>28.9</v>
       </c>
       <c r="C50">
-        <v>34.71</v>
+        <v>36.27</v>
       </c>
       <c r="D50">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E50">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F50">
         <v>0.02</v>
       </c>
       <c r="G50">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H50">
-        <v>29.3</v>
+        <v>27.3</v>
       </c>
       <c r="I50">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-25 23:44:07</v>
+        <v>2023-09-28 18:56:38</v>
       </c>
       <c r="B51">
-        <v>30</v>
+        <v>28.5</v>
       </c>
       <c r="C51">
-        <v>34.71</v>
+        <v>36.27</v>
       </c>
       <c r="D51">
         <v>147</v>
       </c>
       <c r="E51">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F51">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G51">
         <v>32</v>
       </c>
       <c r="H51">
-        <v>29.3</v>
+        <v>25.1</v>
       </c>
       <c r="I51">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-26 04:55:26</v>
+        <v>2023-09-29 00:05:50</v>
       </c>
       <c r="B52">
-        <v>30</v>
+        <v>28.7</v>
       </c>
       <c r="C52">
-        <v>35.29</v>
+        <v>36.27</v>
       </c>
       <c r="D52">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E52">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F52">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G52">
         <v>32</v>
       </c>
       <c r="H52">
-        <v>29.3</v>
+        <v>25.1</v>
       </c>
       <c r="I52">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-26 10:03:50</v>
+        <v>2023-09-29 05:16:14</v>
       </c>
       <c r="B53">
-        <v>29.9</v>
+        <v>28.5</v>
       </c>
       <c r="C53">
-        <v>35.29</v>
+        <v>35.88</v>
       </c>
       <c r="D53">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E53">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F53">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G53">
         <v>32</v>
       </c>
       <c r="H53">
-        <v>29.3</v>
+        <v>24.1</v>
       </c>
       <c r="I53">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-26 15:14:32</v>
+        <v>2023-09-29 10:26:31</v>
       </c>
       <c r="B54">
-        <v>29.9</v>
+        <v>28.5</v>
       </c>
       <c r="C54">
-        <v>35.29</v>
+        <v>35.88</v>
       </c>
       <c r="D54">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E54">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F54">
         <v>0.02</v>
       </c>
       <c r="G54">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H54">
-        <v>27.4</v>
+        <v>20.5</v>
       </c>
       <c r="I54">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-26 20:23:58</v>
+        <v>2023-09-29 15:35:56</v>
       </c>
       <c r="B55">
-        <v>29.89</v>
+        <v>28.4</v>
       </c>
       <c r="C55">
-        <v>35.29</v>
+        <v>35.88</v>
       </c>
       <c r="D55">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E55">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F55">
         <v>0.02</v>
       </c>
       <c r="G55">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H55">
-        <v>27.4</v>
+        <v>20.5</v>
       </c>
       <c r="I55">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-27 01:34:25</v>
+        <v>2023-09-29 20:45:35</v>
       </c>
       <c r="B56">
-        <v>29.89</v>
+        <v>28.3</v>
       </c>
       <c r="C56">
-        <v>35.29</v>
+        <v>35.88</v>
       </c>
       <c r="D56">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E56">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F56">
         <v>0.02</v>
       </c>
       <c r="G56">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H56">
-        <v>27.6</v>
+        <v>24.2</v>
       </c>
       <c r="I56">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-27 06:44:05</v>
+        <v>2023-09-30 01:53:16</v>
       </c>
       <c r="B57">
-        <v>29.89</v>
+        <v>28.2</v>
       </c>
       <c r="C57">
-        <v>35.29</v>
+        <v>35.88</v>
       </c>
       <c r="D57">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E57">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F57">
         <v>0.02</v>
       </c>
       <c r="G57">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H57">
-        <v>27.6</v>
+        <v>24.5</v>
       </c>
       <c r="I57">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-27 11:55:21</v>
+        <v>2023-09-30 07:01:16</v>
       </c>
       <c r="B58">
-        <v>29.87</v>
+        <v>27</v>
       </c>
       <c r="C58">
-        <v>35.29</v>
+        <v>37.77</v>
       </c>
       <c r="D58">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E58">
         <v>0.02</v>
@@ -1899,24 +1899,24 @@
         <v>0.02</v>
       </c>
       <c r="G58">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H58">
-        <v>27.6</v>
+        <v>20.5</v>
       </c>
       <c r="I58">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-27 17:05:42</v>
+        <v>2023-09-30 12:10:45</v>
       </c>
       <c r="B59">
-        <v>29.87</v>
+        <v>27.5</v>
       </c>
       <c r="C59">
-        <v>35.29</v>
+        <v>37.77</v>
       </c>
       <c r="D59">
         <v>146</v>
@@ -1928,143 +1928,143 @@
         <v>0.02</v>
       </c>
       <c r="G59">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H59">
-        <v>27.6</v>
+        <v>23.5</v>
       </c>
       <c r="I59">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-27 22:15:46</v>
+        <v>2023-09-30 17:21:32</v>
       </c>
       <c r="B60">
-        <v>28.99</v>
+        <v>27.9</v>
       </c>
       <c r="C60">
-        <v>35.29</v>
+        <v>37.77</v>
       </c>
       <c r="D60">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E60">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F60">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G60">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H60">
-        <v>27.6</v>
+        <v>23</v>
       </c>
       <c r="I60">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-28 03:27:07</v>
+        <v>2023-09-30 22:30:46</v>
       </c>
       <c r="B61">
-        <v>28.99</v>
+        <v>28.5</v>
       </c>
       <c r="C61">
-        <v>36.27</v>
+        <v>37.77</v>
       </c>
       <c r="D61">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E61">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F61">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G61">
         <v>32</v>
       </c>
       <c r="H61">
-        <v>27.6</v>
+        <v>23</v>
       </c>
       <c r="I61">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-28 08:35:01</v>
+        <v>2023-10-01 03:41:01</v>
       </c>
       <c r="B62">
-        <v>29</v>
+        <v>28.4</v>
       </c>
       <c r="C62">
-        <v>36.27</v>
+        <v>41.21</v>
       </c>
       <c r="D62">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E62">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F62">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G62">
         <v>32</v>
       </c>
       <c r="H62">
-        <v>27.6</v>
+        <v>23</v>
       </c>
       <c r="I62">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-28 13:45:56</v>
+        <v>2023-10-01 08:50:52</v>
       </c>
       <c r="B63">
-        <v>28.9</v>
+        <v>28.5</v>
       </c>
       <c r="C63">
-        <v>36.27</v>
+        <v>41.21</v>
       </c>
       <c r="D63">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E63">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F63">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G63">
         <v>32</v>
       </c>
       <c r="H63">
-        <v>27.3</v>
+        <v>23</v>
       </c>
       <c r="I63">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-28 18:56:38</v>
+        <v>2023-10-01 14:00:52</v>
       </c>
       <c r="B64">
-        <v>28.5</v>
+        <v>28</v>
       </c>
       <c r="C64">
-        <v>36.27</v>
+        <v>41.21</v>
       </c>
       <c r="D64">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E64">
         <v>0.01</v>
@@ -2073,27 +2073,27 @@
         <v>0.01</v>
       </c>
       <c r="G64">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H64">
-        <v>25.1</v>
+        <v>23.1</v>
       </c>
       <c r="I64">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-29 00:05:50</v>
+        <v>2023-10-01 19:10:51</v>
       </c>
       <c r="B65">
-        <v>28.7</v>
+        <v>27.88</v>
       </c>
       <c r="C65">
-        <v>36.27</v>
+        <v>41.21</v>
       </c>
       <c r="D65">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E65">
         <v>0.01</v>
@@ -2102,24 +2102,24 @@
         <v>0.01</v>
       </c>
       <c r="G65">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H65">
-        <v>25.1</v>
+        <v>23.2</v>
       </c>
       <c r="I65">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-29 05:16:14</v>
+        <v>2023-10-02 00:22:18</v>
       </c>
       <c r="B66">
-        <v>28.5</v>
+        <v>28.21</v>
       </c>
       <c r="C66">
-        <v>35.88</v>
+        <v>41.21</v>
       </c>
       <c r="D66">
         <v>147</v>
@@ -2131,201 +2131,201 @@
         <v>0.01</v>
       </c>
       <c r="G66">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H66">
-        <v>24.1</v>
+        <v>23.4</v>
       </c>
       <c r="I66">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-29 10:26:31</v>
+        <v>2023-10-02 05:31:55</v>
       </c>
       <c r="B67">
-        <v>28.5</v>
+        <v>28.21</v>
       </c>
       <c r="C67">
-        <v>35.88</v>
+        <v>41.41</v>
       </c>
       <c r="D67">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E67">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F67">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G67">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H67">
-        <v>20.5</v>
+        <v>23.3</v>
       </c>
       <c r="I67">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-29 15:35:56</v>
+        <v>2023-10-02 10:42:01</v>
       </c>
       <c r="B68">
-        <v>28.4</v>
+        <v>28.29</v>
       </c>
       <c r="C68">
-        <v>35.88</v>
+        <v>41.41</v>
       </c>
       <c r="D68">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E68">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F68">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G68">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H68">
-        <v>20.5</v>
+        <v>23.4</v>
       </c>
       <c r="I68">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-29 20:45:35</v>
+        <v>2023-10-02 15:53:03</v>
       </c>
       <c r="B69">
-        <v>28.3</v>
+        <v>28.19</v>
       </c>
       <c r="C69">
-        <v>35.88</v>
+        <v>41.41</v>
       </c>
       <c r="D69">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E69">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F69">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G69">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H69">
-        <v>24.2</v>
+        <v>24.5</v>
       </c>
       <c r="I69">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-30 01:53:16</v>
+        <v>2023-10-02 21:02:11</v>
       </c>
       <c r="B70">
-        <v>28.2</v>
+        <v>28.09</v>
       </c>
       <c r="C70">
-        <v>35.88</v>
+        <v>41.41</v>
       </c>
       <c r="D70">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E70">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F70">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G70">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H70">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="I70">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-30 07:01:16</v>
+        <v>2023-10-03 02:11:32</v>
       </c>
       <c r="B71">
-        <v>27</v>
+        <v>28.09</v>
       </c>
       <c r="C71">
-        <v>37.77</v>
+        <v>40.17</v>
       </c>
       <c r="D71">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E71">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F71">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G71">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H71">
-        <v>20.5</v>
+        <v>24.8</v>
       </c>
       <c r="I71">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-30 12:10:45</v>
+        <v>2023-10-03 07:21:32</v>
       </c>
       <c r="B72">
-        <v>27.5</v>
+        <v>28.09</v>
       </c>
       <c r="C72">
-        <v>37.77</v>
+        <v>40.17</v>
       </c>
       <c r="D72">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E72">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F72">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G72">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H72">
-        <v>23.5</v>
+        <v>24.9</v>
       </c>
       <c r="I72">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-30 17:21:32</v>
+        <v>2023-10-03 12:31:30</v>
       </c>
       <c r="B73">
-        <v>27.9</v>
+        <v>28.19</v>
       </c>
       <c r="C73">
-        <v>37.77</v>
+        <v>40.17</v>
       </c>
       <c r="D73">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E73">
         <v>0.01</v>
@@ -2334,27 +2334,27 @@
         <v>0.01</v>
       </c>
       <c r="G73">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H73">
-        <v>23</v>
+        <v>25.6</v>
       </c>
       <c r="I73">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-30 22:30:46</v>
+        <v>2023-10-03 17:41:30</v>
       </c>
       <c r="B74">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="C74">
-        <v>37.77</v>
+        <v>40.17</v>
       </c>
       <c r="D74">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E74">
         <v>0.01</v>
@@ -2363,24 +2363,24 @@
         <v>0.01</v>
       </c>
       <c r="G74">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H74">
-        <v>23</v>
+        <v>25.8</v>
       </c>
       <c r="I74">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-10-01 03:41:01</v>
+        <v>2023-10-03 22:51:47</v>
       </c>
       <c r="B75">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="C75">
-        <v>41.21</v>
+        <v>40.17</v>
       </c>
       <c r="D75">
         <v>145</v>
@@ -2392,27 +2392,27 @@
         <v>0.01</v>
       </c>
       <c r="G75">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H75">
-        <v>23</v>
+        <v>25.9</v>
       </c>
       <c r="I75">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-10-01 08:50:52</v>
+        <v>2023-10-04 04:01:37</v>
       </c>
       <c r="B76">
         <v>28.5</v>
       </c>
       <c r="C76">
-        <v>41.21</v>
+        <v>40.17</v>
       </c>
       <c r="D76">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E76">
         <v>0.01</v>
@@ -2421,27 +2421,27 @@
         <v>0.01</v>
       </c>
       <c r="G76">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H76">
-        <v>23</v>
+        <v>25.9</v>
       </c>
       <c r="I76">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-10-01 14:00:52</v>
+        <v>2023-10-04 09:13:55</v>
       </c>
       <c r="B77">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="C77">
-        <v>41.21</v>
+        <v>40.17</v>
       </c>
       <c r="D77">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E77">
         <v>0.01</v>
@@ -2453,24 +2453,24 @@
         <v>33</v>
       </c>
       <c r="H77">
-        <v>23.1</v>
+        <v>25.9</v>
       </c>
       <c r="I77">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-10-01 19:10:51</v>
+        <v>2023-10-04 14:23:55</v>
       </c>
       <c r="B78">
-        <v>27.88</v>
+        <v>29.9</v>
       </c>
       <c r="C78">
-        <v>41.21</v>
+        <v>40.17</v>
       </c>
       <c r="D78">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E78">
         <v>0.01</v>
@@ -2479,27 +2479,27 @@
         <v>0.01</v>
       </c>
       <c r="G78">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H78">
-        <v>23.2</v>
+        <v>25.7</v>
       </c>
       <c r="I78">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-10-02 00:22:18</v>
+        <v>2023-10-04 19:32:39</v>
       </c>
       <c r="B79">
-        <v>28.21</v>
+        <v>29.4</v>
       </c>
       <c r="C79">
-        <v>41.21</v>
+        <v>40.17</v>
       </c>
       <c r="D79">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E79">
         <v>0.01</v>
@@ -2508,24 +2508,24 @@
         <v>0.01</v>
       </c>
       <c r="G79">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H79">
-        <v>23.4</v>
+        <v>25.7</v>
       </c>
       <c r="I79">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-10-02 05:31:55</v>
+        <v>2023-10-05 00:42:54</v>
       </c>
       <c r="B80">
-        <v>28.21</v>
+        <v>29.4</v>
       </c>
       <c r="C80">
-        <v>41.41</v>
+        <v>40.17</v>
       </c>
       <c r="D80">
         <v>146</v>
@@ -2537,27 +2537,27 @@
         <v>0.01</v>
       </c>
       <c r="G80">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H80">
-        <v>23.3</v>
+        <v>25.8</v>
       </c>
       <c r="I80">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-10-02 10:42:01</v>
+        <v>2023-10-05 05:53:40</v>
       </c>
       <c r="B81">
-        <v>28.29</v>
+        <v>29.4</v>
       </c>
       <c r="C81">
-        <v>41.41</v>
+        <v>39.65</v>
       </c>
       <c r="D81">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E81">
         <v>0.01</v>
@@ -2569,24 +2569,24 @@
         <v>33</v>
       </c>
       <c r="H81">
-        <v>23.4</v>
+        <v>25.9</v>
       </c>
       <c r="I81">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-10-02 15:53:03</v>
+        <v>2023-10-05 11:02:29</v>
       </c>
       <c r="B82">
-        <v>28.19</v>
+        <v>29.4</v>
       </c>
       <c r="C82">
-        <v>41.41</v>
+        <v>39.65</v>
       </c>
       <c r="D82">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E82">
         <v>0.01</v>
@@ -2595,27 +2595,27 @@
         <v>0.01</v>
       </c>
       <c r="G82">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H82">
-        <v>24.5</v>
+        <v>25.8</v>
       </c>
       <c r="I82">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-10-02 21:02:11</v>
+        <v>2023-10-05 16:13:44</v>
       </c>
       <c r="B83">
-        <v>28.09</v>
+        <v>29.39</v>
       </c>
       <c r="C83">
-        <v>41.41</v>
+        <v>39.65</v>
       </c>
       <c r="D83">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E83">
         <v>0.01</v>
@@ -2627,24 +2627,24 @@
         <v>33</v>
       </c>
       <c r="H83">
-        <v>24.7</v>
+        <v>25.9</v>
       </c>
       <c r="I83">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-10-03 02:11:32</v>
+        <v>2023-10-05 21:22:47</v>
       </c>
       <c r="B84">
-        <v>28.09</v>
+        <v>29.09</v>
       </c>
       <c r="C84">
-        <v>40.17</v>
+        <v>39.65</v>
       </c>
       <c r="D84">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E84">
         <v>0.01</v>
@@ -2656,24 +2656,24 @@
         <v>33</v>
       </c>
       <c r="H84">
-        <v>24.8</v>
+        <v>26.1</v>
       </c>
       <c r="I84">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-10-03 07:21:32</v>
+        <v>2023-10-06 02:33:11</v>
       </c>
       <c r="B85">
-        <v>28.09</v>
+        <v>28.99</v>
       </c>
       <c r="C85">
-        <v>40.17</v>
+        <v>41.53</v>
       </c>
       <c r="D85">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E85">
         <v>0.01</v>
@@ -2682,27 +2682,27 @@
         <v>0.01</v>
       </c>
       <c r="G85">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H85">
-        <v>24.9</v>
+        <v>26.5</v>
       </c>
       <c r="I85">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-10-03 12:31:30</v>
+        <v>2023-10-06 07:42:47</v>
       </c>
       <c r="B86">
-        <v>28.19</v>
+        <v>28.99</v>
       </c>
       <c r="C86">
-        <v>40.17</v>
+        <v>41.53</v>
       </c>
       <c r="D86">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E86">
         <v>0.01</v>
@@ -2714,24 +2714,24 @@
         <v>34</v>
       </c>
       <c r="H86">
-        <v>25.6</v>
+        <v>26.5</v>
       </c>
       <c r="I86">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-10-03 17:41:30</v>
+        <v>2023-10-06 12:52:46</v>
       </c>
       <c r="B87">
-        <v>28.3</v>
+        <v>29</v>
       </c>
       <c r="C87">
-        <v>40.17</v>
+        <v>41.53</v>
       </c>
       <c r="D87">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E87">
         <v>0.01</v>
@@ -2743,24 +2743,24 @@
         <v>33</v>
       </c>
       <c r="H87">
-        <v>25.8</v>
+        <v>26.5</v>
       </c>
       <c r="I87">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-10-03 22:51:47</v>
+        <v>2023-10-06 18:02:46</v>
       </c>
       <c r="B88">
-        <v>28.3</v>
+        <v>30</v>
       </c>
       <c r="C88">
-        <v>40.17</v>
+        <v>41.53</v>
       </c>
       <c r="D88">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E88">
         <v>0.01</v>
@@ -2772,21 +2772,21 @@
         <v>34</v>
       </c>
       <c r="H88">
-        <v>25.9</v>
+        <v>26.6</v>
       </c>
       <c r="I88">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-10-04 04:01:37</v>
+        <v>2023-10-06 23:12:46</v>
       </c>
       <c r="B89">
-        <v>28.5</v>
+        <v>30</v>
       </c>
       <c r="C89">
-        <v>40.17</v>
+        <v>41.53</v>
       </c>
       <c r="D89">
         <v>145</v>
@@ -2798,27 +2798,27 @@
         <v>0.01</v>
       </c>
       <c r="G89">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H89">
-        <v>25.9</v>
+        <v>26.8</v>
       </c>
       <c r="I89">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-10-04 09:13:55</v>
+        <v>2023-10-07 04:22:46</v>
       </c>
       <c r="B90">
-        <v>28.5</v>
+        <v>30</v>
       </c>
       <c r="C90">
-        <v>40.17</v>
+        <v>41.86</v>
       </c>
       <c r="D90">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E90">
         <v>0.01</v>
@@ -2827,27 +2827,27 @@
         <v>0.01</v>
       </c>
       <c r="G90">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H90">
-        <v>25.9</v>
+        <v>26.9</v>
       </c>
       <c r="I90">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-10-04 14:23:55</v>
+        <v>2023-10-07 09:32:46</v>
       </c>
       <c r="B91">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="C91">
-        <v>40.17</v>
+        <v>41.86</v>
       </c>
       <c r="D91">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E91">
         <v>0.01</v>
@@ -2856,27 +2856,27 @@
         <v>0.01</v>
       </c>
       <c r="G91">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H91">
-        <v>25.7</v>
+        <v>26.9</v>
       </c>
       <c r="I91">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-10-04 19:32:39</v>
+        <v>2023-10-07 14:42:46</v>
       </c>
       <c r="B92">
-        <v>29.4</v>
+        <v>29.69</v>
       </c>
       <c r="C92">
-        <v>40.17</v>
+        <v>41.86</v>
       </c>
       <c r="D92">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E92">
         <v>0.01</v>
@@ -2885,27 +2885,27 @@
         <v>0.01</v>
       </c>
       <c r="G92">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H92">
-        <v>25.7</v>
+        <v>27.1</v>
       </c>
       <c r="I92">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-10-05 00:42:54</v>
+        <v>2023-10-07 19:52:46</v>
       </c>
       <c r="B93">
-        <v>29.4</v>
+        <v>29.59</v>
       </c>
       <c r="C93">
-        <v>40.17</v>
+        <v>41.86</v>
       </c>
       <c r="D93">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E93">
         <v>0.01</v>
@@ -2914,10 +2914,10 @@
         <v>0.01</v>
       </c>
       <c r="G93">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H93">
-        <v>25.8</v>
+        <v>27.1</v>
       </c>
       <c r="I93">
         <v>9</v>
@@ -2925,16 +2925,16 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-10-05 05:53:40</v>
+        <v>2023-10-08 01:02:46</v>
       </c>
       <c r="B94">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="C94">
-        <v>39.65</v>
+        <v>41.86</v>
       </c>
       <c r="D94">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="E94">
         <v>0.01</v>
@@ -2946,24 +2946,24 @@
         <v>33</v>
       </c>
       <c r="H94">
-        <v>25.9</v>
+        <v>26.9</v>
       </c>
       <c r="I94">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-10-05 11:02:29</v>
+        <v>2023-10-08 06:12:46</v>
       </c>
       <c r="B95">
-        <v>29.4</v>
+        <v>29.69</v>
       </c>
       <c r="C95">
-        <v>39.65</v>
+        <v>41.86</v>
       </c>
       <c r="D95">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E95">
         <v>0.01</v>
@@ -2975,7 +2975,7 @@
         <v>33</v>
       </c>
       <c r="H95">
-        <v>25.8</v>
+        <v>27</v>
       </c>
       <c r="I95">
         <v>9</v>
@@ -2983,16 +2983,16 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-10-05 16:13:44</v>
+        <v>2023-10-08 11:23:34</v>
       </c>
       <c r="B96">
-        <v>29.39</v>
+        <v>29.69</v>
       </c>
       <c r="C96">
-        <v>39.65</v>
+        <v>41.86</v>
       </c>
       <c r="D96">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E96">
         <v>0.01</v>
@@ -3004,7 +3004,7 @@
         <v>33</v>
       </c>
       <c r="H96">
-        <v>25.9</v>
+        <v>27</v>
       </c>
       <c r="I96">
         <v>9</v>
@@ -3012,16 +3012,16 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-10-05 21:22:47</v>
+        <v>2023-10-08 16:34:07</v>
       </c>
       <c r="B97">
-        <v>29.09</v>
+        <v>29.69</v>
       </c>
       <c r="C97">
-        <v>39.65</v>
+        <v>41.86</v>
       </c>
       <c r="D97">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E97">
         <v>0.01</v>
@@ -3033,24 +3033,24 @@
         <v>33</v>
       </c>
       <c r="H97">
-        <v>26.1</v>
+        <v>27.1</v>
       </c>
       <c r="I97">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-10-06 02:33:11</v>
+        <v>2023-10-08 21:43:03</v>
       </c>
       <c r="B98">
-        <v>28.99</v>
+        <v>29.69</v>
       </c>
       <c r="C98">
-        <v>41.53</v>
+        <v>41.86</v>
       </c>
       <c r="D98">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E98">
         <v>0.01</v>
@@ -3059,27 +3059,27 @@
         <v>0.01</v>
       </c>
       <c r="G98">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H98">
-        <v>26.5</v>
+        <v>27.1</v>
       </c>
       <c r="I98">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-10-06 07:42:47</v>
+        <v>2023-10-09 02:53:03</v>
       </c>
       <c r="B99">
-        <v>28.99</v>
+        <v>29.69</v>
       </c>
       <c r="C99">
-        <v>41.53</v>
+        <v>40.36</v>
       </c>
       <c r="D99">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E99">
         <v>0.01</v>
@@ -3088,10 +3088,10 @@
         <v>0.01</v>
       </c>
       <c r="G99">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H99">
-        <v>26.5</v>
+        <v>27.2</v>
       </c>
       <c r="I99">
         <v>10</v>
@@ -3099,16 +3099,16 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-10-06 12:52:46</v>
+        <v>2023-10-09 08:03:03</v>
       </c>
       <c r="B100">
-        <v>29</v>
+        <v>29.69</v>
       </c>
       <c r="C100">
-        <v>41.53</v>
+        <v>40.36</v>
       </c>
       <c r="D100">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E100">
         <v>0.01</v>
@@ -3120,24 +3120,24 @@
         <v>33</v>
       </c>
       <c r="H100">
-        <v>26.5</v>
+        <v>27.2</v>
       </c>
       <c r="I100">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-10-06 18:02:46</v>
+        <v>2023-10-09 13:13:32</v>
       </c>
       <c r="B101">
-        <v>30</v>
+        <v>29.69</v>
       </c>
       <c r="C101">
-        <v>41.53</v>
+        <v>40.36</v>
       </c>
       <c r="D101">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="E101">
         <v>0.01</v>
@@ -3146,27 +3146,27 @@
         <v>0.01</v>
       </c>
       <c r="G101">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H101">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="I101">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-10-06 23:12:46</v>
+        <v>2023-10-09 18:23:10</v>
       </c>
       <c r="B102">
-        <v>30</v>
+        <v>29.69</v>
       </c>
       <c r="C102">
-        <v>41.53</v>
+        <v>40.36</v>
       </c>
       <c r="D102">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="E102">
         <v>0.01</v>
@@ -3175,10 +3175,10 @@
         <v>0.01</v>
       </c>
       <c r="G102">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H102">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="I102">
         <v>10</v>
@@ -3186,28 +3186,28 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-10-07 04:22:46</v>
+        <v>2023-10-09 23:33:10</v>
       </c>
       <c r="B103">
+        <v>29.69</v>
+      </c>
+      <c r="C103">
+        <v>40.36</v>
+      </c>
+      <c r="D103">
+        <v>157</v>
+      </c>
+      <c r="E103">
+        <v>0.01</v>
+      </c>
+      <c r="F103">
+        <v>0.01</v>
+      </c>
+      <c r="G103">
         <v>30</v>
       </c>
-      <c r="C103">
-        <v>41.86</v>
-      </c>
-      <c r="D103">
-        <v>147</v>
-      </c>
-      <c r="E103">
-        <v>0.01</v>
-      </c>
-      <c r="F103">
-        <v>0.01</v>
-      </c>
-      <c r="G103">
-        <v>36</v>
-      </c>
       <c r="H103">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="I103">
         <v>10</v>
@@ -3215,28 +3215,28 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-10-07 09:32:46</v>
+        <v>2023-10-10 04:43:10</v>
       </c>
       <c r="B104">
+        <v>29.69</v>
+      </c>
+      <c r="C104">
+        <v>40.69</v>
+      </c>
+      <c r="D104">
+        <v>157</v>
+      </c>
+      <c r="E104">
+        <v>0.01</v>
+      </c>
+      <c r="F104">
+        <v>0.01</v>
+      </c>
+      <c r="G104">
         <v>30</v>
       </c>
-      <c r="C104">
-        <v>41.86</v>
-      </c>
-      <c r="D104">
-        <v>147</v>
-      </c>
-      <c r="E104">
-        <v>0.01</v>
-      </c>
-      <c r="F104">
-        <v>0.01</v>
-      </c>
-      <c r="G104">
-        <v>36</v>
-      </c>
       <c r="H104">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="I104">
         <v>10</v>
@@ -3244,16 +3244,16 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-10-07 14:42:46</v>
+        <v>2023-10-10 09:53:10</v>
       </c>
       <c r="B105">
-        <v>29.69</v>
+        <v>29.89</v>
       </c>
       <c r="C105">
-        <v>41.86</v>
+        <v>40.69</v>
       </c>
       <c r="D105">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E105">
         <v>0.01</v>
@@ -3262,10 +3262,10 @@
         <v>0.01</v>
       </c>
       <c r="G105">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H105">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="I105">
         <v>9</v>
@@ -3273,16 +3273,16 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-10-07 19:52:46</v>
+        <v>2023-10-10 15:04:20</v>
       </c>
       <c r="B106">
-        <v>29.59</v>
+        <v>29.89</v>
       </c>
       <c r="C106">
-        <v>41.86</v>
+        <v>40.69</v>
       </c>
       <c r="D106">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E106">
         <v>0.01</v>
@@ -3291,27 +3291,27 @@
         <v>0.01</v>
       </c>
       <c r="G106">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H106">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="I106">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-10-08 01:02:46</v>
+        <v>2023-10-10 20:13:17</v>
       </c>
       <c r="B107">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C107">
-        <v>41.86</v>
+        <v>40.69</v>
       </c>
       <c r="D107">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E107">
         <v>0.01</v>
@@ -3320,27 +3320,27 @@
         <v>0.01</v>
       </c>
       <c r="G107">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H107">
-        <v>26.9</v>
+        <v>27.3</v>
       </c>
       <c r="I107">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-08 06:12:46</v>
+        <v>2023-10-11 01:23:17</v>
       </c>
       <c r="B108">
-        <v>29.69</v>
+        <v>30</v>
       </c>
       <c r="C108">
-        <v>41.86</v>
+        <v>40.69</v>
       </c>
       <c r="D108">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E108">
         <v>0.01</v>
@@ -3349,27 +3349,27 @@
         <v>0.01</v>
       </c>
       <c r="G108">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H108">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="I108">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-08 11:23:34</v>
+        <v>2023-10-11 06:33:17</v>
       </c>
       <c r="B109">
-        <v>29.69</v>
+        <v>30</v>
       </c>
       <c r="C109">
-        <v>41.86</v>
+        <v>40.69</v>
       </c>
       <c r="D109">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E109">
         <v>0.01</v>
@@ -3378,24 +3378,24 @@
         <v>0.01</v>
       </c>
       <c r="G109">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H109">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="I109">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-08 16:34:07</v>
+        <v>2023-10-11 11:36:31</v>
       </c>
       <c r="B110">
-        <v>29.69</v>
+        <v>30.48</v>
       </c>
       <c r="C110">
-        <v>41.86</v>
+        <v>40.69</v>
       </c>
       <c r="D110">
         <v>155</v>
@@ -3407,27 +3407,27 @@
         <v>0.01</v>
       </c>
       <c r="G110">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H110">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="I110">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-08 21:43:03</v>
+        <v>2023-10-11 16:46:35</v>
       </c>
       <c r="B111">
-        <v>29.69</v>
+        <v>30.47</v>
       </c>
       <c r="C111">
-        <v>41.86</v>
+        <v>40.69</v>
       </c>
       <c r="D111">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E111">
         <v>0.01</v>
@@ -3436,27 +3436,27 @@
         <v>0.01</v>
       </c>
       <c r="G111">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H111">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="I111">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-09 02:53:03</v>
+        <v>2023-10-11 21:56:35</v>
       </c>
       <c r="B112">
-        <v>29.69</v>
+        <v>30.47</v>
       </c>
       <c r="C112">
-        <v>40.36</v>
+        <v>40.69</v>
       </c>
       <c r="D112">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E112">
         <v>0.01</v>
@@ -3465,27 +3465,27 @@
         <v>0.01</v>
       </c>
       <c r="G112">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H112">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="I112">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-09 08:03:03</v>
+        <v>2023-10-12 03:06:31</v>
       </c>
       <c r="B113">
-        <v>29.69</v>
+        <v>30.44</v>
       </c>
       <c r="C113">
-        <v>40.36</v>
+        <v>40.69</v>
       </c>
       <c r="D113">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E113">
         <v>0.01</v>
@@ -3494,27 +3494,27 @@
         <v>0.01</v>
       </c>
       <c r="G113">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H113">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="I113">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-09 13:13:32</v>
+        <v>2023-10-12 08:16:31</v>
       </c>
       <c r="B114">
-        <v>29.69</v>
+        <v>30.44</v>
       </c>
       <c r="C114">
-        <v>40.36</v>
+        <v>40.69</v>
       </c>
       <c r="D114">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E114">
         <v>0.01</v>
@@ -3523,27 +3523,27 @@
         <v>0.01</v>
       </c>
       <c r="G114">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H114">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="I114">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-09 18:23:10</v>
+        <v>2023-10-12 13:27:25</v>
       </c>
       <c r="B115">
-        <v>29.69</v>
+        <v>30.44</v>
       </c>
       <c r="C115">
-        <v>40.36</v>
+        <v>40.69</v>
       </c>
       <c r="D115">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E115">
         <v>0.01</v>
@@ -3552,27 +3552,27 @@
         <v>0.01</v>
       </c>
       <c r="G115">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H115">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="I115">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-09 23:33:10</v>
+        <v>2023-10-12 18:36:39</v>
       </c>
       <c r="B116">
-        <v>29.69</v>
+        <v>30.43</v>
       </c>
       <c r="C116">
-        <v>40.36</v>
+        <v>40.69</v>
       </c>
       <c r="D116">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E116">
         <v>0.01</v>
@@ -3581,27 +3581,27 @@
         <v>0.01</v>
       </c>
       <c r="G116">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H116">
-        <v>27.2</v>
+        <v>28.2</v>
       </c>
       <c r="I116">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-10 04:43:10</v>
+        <v>2023-10-12 23:46:39</v>
       </c>
       <c r="B117">
-        <v>29.69</v>
+        <v>30.33</v>
       </c>
       <c r="C117">
         <v>40.69</v>
       </c>
       <c r="D117">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E117">
         <v>0.01</v>
@@ -3610,27 +3610,27 @@
         <v>0.01</v>
       </c>
       <c r="G117">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H117">
-        <v>27.2</v>
+        <v>28.2</v>
       </c>
       <c r="I117">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-10 09:53:10</v>
+        <v>2023-10-13 04:56:39</v>
       </c>
       <c r="B118">
-        <v>29.89</v>
+        <v>30.22</v>
       </c>
       <c r="C118">
         <v>40.69</v>
       </c>
       <c r="D118">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="E118">
         <v>0.01</v>
@@ -3639,27 +3639,27 @@
         <v>0.01</v>
       </c>
       <c r="G118">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H118">
-        <v>27.2</v>
+        <v>28.3</v>
       </c>
       <c r="I118">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-10 15:04:20</v>
+        <v>2023-10-13 10:06:39</v>
       </c>
       <c r="B119">
-        <v>29.89</v>
+        <v>30</v>
       </c>
       <c r="C119">
         <v>40.69</v>
       </c>
       <c r="D119">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="E119">
         <v>0.01</v>
@@ -3671,15 +3671,15 @@
         <v>31</v>
       </c>
       <c r="H119">
-        <v>27.2</v>
+        <v>28.3</v>
       </c>
       <c r="I119">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-10 20:13:17</v>
+        <v>2023-10-13 15:16:42</v>
       </c>
       <c r="B120">
         <v>30</v>
@@ -3688,7 +3688,7 @@
         <v>40.69</v>
       </c>
       <c r="D120">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="E120">
         <v>0.01</v>
@@ -3697,10 +3697,10 @@
         <v>0.01</v>
       </c>
       <c r="G120">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H120">
-        <v>27.3</v>
+        <v>28.3</v>
       </c>
       <c r="I120">
         <v>11</v>
@@ -3708,16 +3708,16 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-11 01:23:17</v>
+        <v>2023-10-13 20:26:42</v>
       </c>
       <c r="B121">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="C121">
         <v>40.69</v>
       </c>
       <c r="D121">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="E121">
         <v>0.01</v>
@@ -3726,27 +3726,27 @@
         <v>0.01</v>
       </c>
       <c r="G121">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H121">
-        <v>27.4</v>
+        <v>28.3</v>
       </c>
       <c r="I121">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-11 06:33:17</v>
+        <v>2023-10-14 01:36:41</v>
       </c>
       <c r="B122">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="C122">
         <v>40.69</v>
       </c>
       <c r="D122">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E122">
         <v>0.01</v>
@@ -3755,24 +3755,24 @@
         <v>0.01</v>
       </c>
       <c r="G122">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H122">
-        <v>27.4</v>
+        <v>28.5</v>
       </c>
       <c r="I122">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-11 11:36:31</v>
+        <v>2023-10-14 06:46:41</v>
       </c>
       <c r="B123">
-        <v>30.48</v>
+        <v>29.9</v>
       </c>
       <c r="C123">
-        <v>40.69</v>
+        <v>39.45</v>
       </c>
       <c r="D123">
         <v>155</v>
@@ -3784,27 +3784,27 @@
         <v>0.01</v>
       </c>
       <c r="G123">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H123">
-        <v>27.4</v>
+        <v>28.5</v>
       </c>
       <c r="I123">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-11 16:46:35</v>
+        <v>2023-10-14 11:56:41</v>
       </c>
       <c r="B124">
-        <v>30.47</v>
+        <v>29.9</v>
       </c>
       <c r="C124">
-        <v>40.69</v>
+        <v>39.45</v>
       </c>
       <c r="D124">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E124">
         <v>0.01</v>
@@ -3813,27 +3813,27 @@
         <v>0.01</v>
       </c>
       <c r="G124">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H124">
-        <v>27.5</v>
+        <v>28.5</v>
       </c>
       <c r="I124">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-11 21:56:35</v>
+        <v>2023-10-14 17:06:41</v>
       </c>
       <c r="B125">
-        <v>30.47</v>
+        <v>29.89</v>
       </c>
       <c r="C125">
-        <v>40.69</v>
+        <v>39.45</v>
       </c>
       <c r="D125">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E125">
         <v>0.01</v>
@@ -3842,24 +3842,24 @@
         <v>0.01</v>
       </c>
       <c r="G125">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H125">
-        <v>27.6</v>
+        <v>28.5</v>
       </c>
       <c r="I125">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-12 03:06:31</v>
+        <v>2023-10-14 22:17:25</v>
       </c>
       <c r="B126">
-        <v>30.44</v>
+        <v>29.89</v>
       </c>
       <c r="C126">
-        <v>40.69</v>
+        <v>39.45</v>
       </c>
       <c r="D126">
         <v>161</v>
@@ -3871,27 +3871,27 @@
         <v>0.01</v>
       </c>
       <c r="G126">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H126">
-        <v>27.8</v>
+        <v>28.5</v>
       </c>
       <c r="I126">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-12 08:16:31</v>
+        <v>2023-10-15 03:27:01</v>
       </c>
       <c r="B127">
-        <v>30.44</v>
+        <v>29.89</v>
       </c>
       <c r="C127">
-        <v>40.69</v>
+        <v>43.03</v>
       </c>
       <c r="D127">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E127">
         <v>0.01</v>
@@ -3900,27 +3900,27 @@
         <v>0.01</v>
       </c>
       <c r="G127">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H127">
-        <v>27.8</v>
+        <v>28.5</v>
       </c>
       <c r="I127">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-12 13:27:25</v>
+        <v>2023-10-15 08:36:57</v>
       </c>
       <c r="B128">
-        <v>30.44</v>
+        <v>29.89</v>
       </c>
       <c r="C128">
-        <v>40.69</v>
+        <v>43.03</v>
       </c>
       <c r="D128">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E128">
         <v>0.01</v>
@@ -3929,27 +3929,27 @@
         <v>0.01</v>
       </c>
       <c r="G128">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H128">
-        <v>27.8</v>
+        <v>28.5</v>
       </c>
       <c r="I128">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-12 18:36:39</v>
+        <v>2023-10-15 13:47:31</v>
       </c>
       <c r="B129">
-        <v>30.43</v>
+        <v>29.79</v>
       </c>
       <c r="C129">
-        <v>40.69</v>
+        <v>43.03</v>
       </c>
       <c r="D129">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E129">
         <v>0.01</v>
@@ -3958,27 +3958,27 @@
         <v>0.01</v>
       </c>
       <c r="G129">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H129">
-        <v>28.2</v>
+        <v>28.5</v>
       </c>
       <c r="I129">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-12 23:46:39</v>
+        <v>2023-10-15 18:57:19</v>
       </c>
       <c r="B130">
-        <v>30.33</v>
+        <v>29.79</v>
       </c>
       <c r="C130">
-        <v>40.69</v>
+        <v>43.03</v>
       </c>
       <c r="D130">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E130">
         <v>0.01</v>
@@ -3990,24 +3990,24 @@
         <v>31</v>
       </c>
       <c r="H130">
-        <v>28.2</v>
+        <v>28.5</v>
       </c>
       <c r="I130">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-13 04:56:39</v>
+        <v>2023-10-16 00:09:00</v>
       </c>
       <c r="B131">
-        <v>30.22</v>
+        <v>29.78</v>
       </c>
       <c r="C131">
-        <v>40.69</v>
+        <v>43.03</v>
       </c>
       <c r="D131">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="E131">
         <v>0.01</v>
@@ -4019,24 +4019,24 @@
         <v>31</v>
       </c>
       <c r="H131">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="I131">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-13 10:06:39</v>
+        <v>2023-10-16 05:17:22</v>
       </c>
       <c r="B132">
-        <v>30</v>
+        <v>29.78</v>
       </c>
       <c r="C132">
-        <v>40.69</v>
+        <v>40.75</v>
       </c>
       <c r="D132">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E132">
         <v>0.01</v>
@@ -4048,24 +4048,24 @@
         <v>31</v>
       </c>
       <c r="H132">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="I132">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-13 15:16:42</v>
+        <v>2023-10-16 10:27:46</v>
       </c>
       <c r="B133">
-        <v>30</v>
+        <v>29.69</v>
       </c>
       <c r="C133">
-        <v>40.69</v>
+        <v>40.75</v>
       </c>
       <c r="D133">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E133">
         <v>0.01</v>
@@ -4074,27 +4074,27 @@
         <v>0.01</v>
       </c>
       <c r="G133">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H133">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="I133">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-13 20:26:42</v>
+        <v>2023-10-16 15:37:30</v>
       </c>
       <c r="B134">
-        <v>29.8</v>
+        <v>29.59</v>
       </c>
       <c r="C134">
-        <v>40.69</v>
+        <v>40.75</v>
       </c>
       <c r="D134">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E134">
         <v>0.01</v>
@@ -4103,27 +4103,27 @@
         <v>0.01</v>
       </c>
       <c r="G134">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H134">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="I134">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-14 01:36:41</v>
+        <v>2023-10-16 19:16:24</v>
       </c>
       <c r="B135">
-        <v>29.9</v>
+        <v>29.59</v>
       </c>
       <c r="C135">
-        <v>40.69</v>
+        <v>40.75</v>
       </c>
       <c r="D135">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E135">
         <v>0.01</v>
@@ -4135,24 +4135,24 @@
         <v>30</v>
       </c>
       <c r="H135">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="I135">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-14 06:46:41</v>
+        <v>2023-10-16 22:51:53</v>
       </c>
       <c r="B136">
-        <v>29.9</v>
+        <v>29.59</v>
       </c>
       <c r="C136">
-        <v>39.45</v>
+        <v>40.75</v>
       </c>
       <c r="D136">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E136">
         <v>0.01</v>
@@ -4161,27 +4161,27 @@
         <v>0.01</v>
       </c>
       <c r="G136">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H136">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="I136">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-14 11:56:41</v>
+        <v>2023-10-17 02:29:00</v>
       </c>
       <c r="B137">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="C137">
-        <v>39.45</v>
+        <v>40.69</v>
       </c>
       <c r="D137">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E137">
         <v>0.01</v>
@@ -4190,27 +4190,27 @@
         <v>0.01</v>
       </c>
       <c r="G137">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H137">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="I137">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-14 17:06:41</v>
+        <v>2023-10-17 06:06:26</v>
       </c>
       <c r="B138">
-        <v>29.89</v>
+        <v>29.4</v>
       </c>
       <c r="C138">
-        <v>39.45</v>
+        <v>40.69</v>
       </c>
       <c r="D138">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E138">
         <v>0.01</v>
@@ -4219,27 +4219,27 @@
         <v>0.01</v>
       </c>
       <c r="G138">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H138">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="I138">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-14 22:17:25</v>
+        <v>2023-10-17 09:46:26</v>
       </c>
       <c r="B139">
-        <v>29.89</v>
+        <v>29.3</v>
       </c>
       <c r="C139">
-        <v>39.45</v>
+        <v>40.69</v>
       </c>
       <c r="D139">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E139">
         <v>0.01</v>
@@ -4248,27 +4248,27 @@
         <v>0.01</v>
       </c>
       <c r="G139">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H139">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="I139">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-15 03:27:01</v>
+        <v>2023-10-17 13:26:50</v>
       </c>
       <c r="B140">
-        <v>29.89</v>
+        <v>29.2</v>
       </c>
       <c r="C140">
-        <v>43.03</v>
+        <v>40.69</v>
       </c>
       <c r="D140">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E140">
         <v>0.01</v>
@@ -4277,27 +4277,27 @@
         <v>0.01</v>
       </c>
       <c r="G140">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H140">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="I140">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-15 08:36:57</v>
+        <v>2023-10-17 17:06:28</v>
       </c>
       <c r="B141">
-        <v>29.89</v>
+        <v>29</v>
       </c>
       <c r="C141">
-        <v>43.03</v>
+        <v>40.69</v>
       </c>
       <c r="D141">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E141">
         <v>0.01</v>
@@ -4306,10 +4306,10 @@
         <v>0.01</v>
       </c>
       <c r="G141">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H141">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="I141">
         <v>11</v>
@@ -4317,16 +4317,16 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-15 13:47:31</v>
+        <v>2023-10-17 20:45:28</v>
       </c>
       <c r="B142">
-        <v>29.79</v>
+        <v>28.9</v>
       </c>
       <c r="C142">
-        <v>43.03</v>
+        <v>40.69</v>
       </c>
       <c r="D142">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E142">
         <v>0.01</v>
@@ -4335,27 +4335,27 @@
         <v>0.01</v>
       </c>
       <c r="G142">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H142">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="I142">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-15 18:57:19</v>
+        <v>2023-10-18 00:27:04</v>
       </c>
       <c r="B143">
-        <v>29.79</v>
+        <v>28.9</v>
       </c>
       <c r="C143">
-        <v>43.03</v>
+        <v>40.69</v>
       </c>
       <c r="D143">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="E143">
         <v>0.01</v>
@@ -4367,24 +4367,24 @@
         <v>31</v>
       </c>
       <c r="H143">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="I143">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-16 00:09:00</v>
+        <v>2023-10-18 04:05:26</v>
       </c>
       <c r="B144">
-        <v>29.78</v>
+        <v>29</v>
       </c>
       <c r="C144">
-        <v>43.03</v>
+        <v>42.31</v>
       </c>
       <c r="D144">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E144">
         <v>0.01</v>
@@ -4396,24 +4396,24 @@
         <v>31</v>
       </c>
       <c r="H144">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="I144">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-16 05:17:22</v>
+        <v>2023-10-18 07:45:45</v>
       </c>
       <c r="B145">
-        <v>29.78</v>
+        <v>29</v>
       </c>
       <c r="C145">
-        <v>40.75</v>
+        <v>42.31</v>
       </c>
       <c r="D145">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E145">
         <v>0.01</v>
@@ -4428,21 +4428,21 @@
         <v>28.2</v>
       </c>
       <c r="I145">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-16 10:27:46</v>
+        <v>2023-10-18 11:25:57</v>
       </c>
       <c r="B146">
-        <v>29.69</v>
+        <v>29</v>
       </c>
       <c r="C146">
-        <v>40.75</v>
+        <v>42.31</v>
       </c>
       <c r="D146">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E146">
         <v>0.01</v>
@@ -4451,13 +4451,158 @@
         <v>0.01</v>
       </c>
       <c r="G146">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H146">
         <v>28.2</v>
       </c>
       <c r="I146">
-        <v>9</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>2023-10-18 15:07:25</v>
+      </c>
+      <c r="B147">
+        <v>30</v>
+      </c>
+      <c r="C147">
+        <v>42.31</v>
+      </c>
+      <c r="D147">
+        <v>153</v>
+      </c>
+      <c r="E147">
+        <v>0.01</v>
+      </c>
+      <c r="F147">
+        <v>0.01</v>
+      </c>
+      <c r="G147">
+        <v>31</v>
+      </c>
+      <c r="H147">
+        <v>28.2</v>
+      </c>
+      <c r="I147">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>2023-10-18 18:45:34</v>
+      </c>
+      <c r="B148">
+        <v>30</v>
+      </c>
+      <c r="C148">
+        <v>42.31</v>
+      </c>
+      <c r="D148">
+        <v>153</v>
+      </c>
+      <c r="E148">
+        <v>0.01</v>
+      </c>
+      <c r="F148">
+        <v>0.01</v>
+      </c>
+      <c r="G148">
+        <v>31</v>
+      </c>
+      <c r="H148">
+        <v>28.2</v>
+      </c>
+      <c r="I148">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>2023-10-18 22:26:31</v>
+      </c>
+      <c r="B149">
+        <v>30</v>
+      </c>
+      <c r="C149">
+        <v>42.31</v>
+      </c>
+      <c r="D149">
+        <v>155</v>
+      </c>
+      <c r="E149">
+        <v>0.01</v>
+      </c>
+      <c r="F149">
+        <v>0.01</v>
+      </c>
+      <c r="G149">
+        <v>31</v>
+      </c>
+      <c r="H149">
+        <v>28.2</v>
+      </c>
+      <c r="I149">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>2023-10-19 02:07:50</v>
+      </c>
+      <c r="B150">
+        <v>30</v>
+      </c>
+      <c r="C150">
+        <v>43.55</v>
+      </c>
+      <c r="D150">
+        <v>153</v>
+      </c>
+      <c r="E150">
+        <v>0.01</v>
+      </c>
+      <c r="F150">
+        <v>0.01</v>
+      </c>
+      <c r="G150">
+        <v>31</v>
+      </c>
+      <c r="H150">
+        <v>27.9</v>
+      </c>
+      <c r="I150">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>2023-10-19 05:47:38</v>
+      </c>
+      <c r="B151">
+        <v>30</v>
+      </c>
+      <c r="C151">
+        <v>43.55</v>
+      </c>
+      <c r="D151">
+        <v>153</v>
+      </c>
+      <c r="E151">
+        <v>0.01</v>
+      </c>
+      <c r="F151">
+        <v>0.01</v>
+      </c>
+      <c r="G151">
+        <v>31</v>
+      </c>
+      <c r="H151">
+        <v>28.2</v>
+      </c>
+      <c r="I151">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4469,7 +4614,7 @@
     <mergeCell ref="A6:H6"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I146"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I151"/>
   </ignoredErrors>
 </worksheet>
 </file>